--- a/Jogos_do_Dia/2023-05-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AI78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.22</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -778,10 +778,10 @@
         <v>4.9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="O3" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="P3" t="n">
         <v>1.29</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.71</v>
+        <v>2.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -893,10 +893,10 @@
         <v>3.3</v>
       </c>
       <c r="N4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -956,7 +956,7 @@
         <v>2.8</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>1.08</v>
@@ -1008,10 +1008,10 @@
         <v>2.59</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
         <v>1.48</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.1</v>
@@ -1123,10 +1123,10 @@
         <v>2.55</v>
       </c>
       <c r="N6" t="n">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
         <v>1.51</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.66</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1241,7 +1241,7 @@
         <v>1.53</v>
       </c>
       <c r="O7" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="P7" t="n">
         <v>1.29</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="H8" t="n">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.99</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1353,10 +1353,10 @@
         <v>3.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="P8" t="n">
         <v>1.41</v>
@@ -1422,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,80 +1434,80 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Nõmme Kalju</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lokomotiva Zagreb</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Y9" t="n">
         <v>1.42</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.87</v>
+        <v>2.53</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nõmme Kalju</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>1.42</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.53</v>
+        <v>2.87</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1668,22 +1668,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Vorwärts Steyr</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Austria Wien II</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="H11" t="n">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.89</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.12</v>
+        <v>2.81</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1783,85 +1783,85 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.08</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="O12" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.53</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Z12" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1898,85 +1898,85 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vorwärts Steyr</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Austria Wien II</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>2.31</v>
       </c>
       <c r="H13" t="n">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.81</v>
+        <v>3.12</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2013,85 +2013,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.29</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="O14" t="n">
-        <v>1.99</v>
+        <v>2.23</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="X14" t="n">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.97</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2158,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="O15" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="P15" t="n">
         <v>1.48</v>
@@ -2243,100 +2243,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.07</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE16" t="n">
         <v>1.25</v>
       </c>
-      <c r="M16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AF16" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="17">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2388,10 +2388,10 @@
         <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="O17" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
         <v>1.36</v>
@@ -2430,25 +2430,25 @@
         <v>3.19</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AI17" t="n">
         <v>1.98</v>
@@ -2473,106 +2473,106 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.57</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="U18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF18" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AG18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2588,106 +2588,106 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Nykøbing</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Hillerød</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH19" t="n">
         <v>3.34</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,110 +2699,110 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>FC Helsingør</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSV Duisburg</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.86</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.26</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.17</v>
+        <v>1.84</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>10.25</v>
+        <v>14.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="N20" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="P20" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q20" t="n">
         <v>3.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2.39</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="X20" t="n">
-        <v>1.41</v>
+        <v>1.86</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.37</v>
+        <v>1.89</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.97</v>
+        <v>3.62</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.49</v>
+        <v>2.11</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.37</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,110 +2814,110 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CD Trofense</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.23</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="N21" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="P21" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="U21" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>1.87</v>
+        <v>0.86</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,110 +2929,110 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>MSV Duisburg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="H22" t="n">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>14.5</v>
+        <v>10.25</v>
       </c>
       <c r="L22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.25</v>
       </c>
-      <c r="M22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.28</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="X22" t="n">
-        <v>0.86</v>
+        <v>1.41</v>
       </c>
       <c r="Y22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.37</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AA22" t="n">
-        <v>2.83</v>
+        <v>2.97</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.33</v>
+        <v>1.66</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.85</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3048,106 +3048,106 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Helsingør</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="O23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.88</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.46</v>
+        <v>2.33</v>
       </c>
       <c r="X23" t="n">
-        <v>1.86</v>
+        <v>0.33</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.62</v>
+        <v>2.88</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,104 +3159,104 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nykøbing</t>
+          <t>CD Trofense</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hillerød</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1.73</v>
+        <v>2.21</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.75</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="X24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y24" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="25">
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="J25" t="n">
         <v>1.05</v>
@@ -3308,10 +3308,10 @@
         <v>3.6</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O25" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3359,7 +3359,7 @@
         <v>1.91</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF25" t="n">
         <v>1.29</v>
@@ -3377,7 +3377,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wattens</t>
+          <t>Rapid Bucureşti</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.66</v>
+        <v>2.19</v>
       </c>
       <c r="H26" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.71</v>
+        <v>3.15</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N26" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF26" t="n">
         <v>1.7</v>
       </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,104 +3504,104 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rapid Bucureşti</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>2.03</v>
       </c>
       <c r="H27" t="n">
-        <v>3.06</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="O27" t="n">
-        <v>1.68</v>
+        <v>1.99</v>
       </c>
       <c r="P27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2.22</v>
+        <v>1.14</v>
       </c>
       <c r="X27" t="n">
-        <v>1.11</v>
+        <v>0.71</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.31</v>
+        <v>2.28</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3632,37 +3632,37 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O28" t="n">
-        <v>2.19</v>
+        <v>2.34</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R28" t="n">
         <v>1.5</v>
@@ -3671,13 +3671,13 @@
         <v>2.5</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
         <v>1.31</v>
@@ -3695,28 +3695,28 @@
         <v>3.28</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG28" t="n">
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="29">
@@ -3747,37 +3747,37 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.38</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="O29" t="n">
-        <v>2.49</v>
+        <v>2.06</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
         <v>1.73</v>
@@ -3786,13 +3786,13 @@
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
         <v>1</v>
@@ -3810,34 +3810,34 @@
         <v>2.79</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG29" t="n">
         <v>2.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3849,104 +3849,104 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.83</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.45</v>
+        <v>9.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="M30" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="O30" t="n">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="P30" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="V30" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="W30" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="X30" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="AB30" t="n">
         <v>1.26</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.84</v>
+        <v>4.34</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="AI30" t="n">
-        <v>2.4</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="31">
@@ -3968,100 +3968,100 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Excelsior Virton</t>
+          <t>Lommel United</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>KRC Genk II</t>
+          <t>Standard Liège II</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>13</v>
+        <v>18.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="M31" t="n">
-        <v>3.77</v>
+        <v>4.53</v>
       </c>
       <c r="N31" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O31" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="U31" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>0.53</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.23</v>
+        <v>1.67</v>
       </c>
       <c r="AI31" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="32">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>3.42</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4113,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="O32" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4155,13 +4155,13 @@
         <v>3.1</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE32" t="n">
         <v>1.4</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,104 +4194,104 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Excelsior Virton</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>KRC Genk II</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.18</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
         <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="M33" t="n">
-        <v>5.2</v>
+        <v>3.77</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="O33" t="n">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.82</v>
+        <v>3.23</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="S33" t="n">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="T33" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V33" t="n">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="W33" t="n">
-        <v>1.44</v>
+        <v>0.53</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4313,97 +4313,97 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.47</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O34" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="R34" t="n">
         <v>1.47</v>
       </c>
       <c r="S34" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="U34" t="n">
         <v>1.22</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -4428,106 +4428,106 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="H35" t="n">
-        <v>4.45</v>
+        <v>7.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>14.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L35" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="M35" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE35" t="n">
         <v>1.27</v>
       </c>
-      <c r="Q35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,110 +4539,110 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UTC Cajamarca</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.49</v>
+        <v>2.37</v>
       </c>
       <c r="H36" t="n">
-        <v>3.61</v>
+        <v>3.47</v>
       </c>
       <c r="I36" t="n">
-        <v>5.24</v>
+        <v>2.63</v>
       </c>
       <c r="J36" t="n">
         <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="L36" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M36" t="n">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
-        <v>1.89</v>
+        <v>2.35</v>
       </c>
       <c r="P36" t="n">
         <v>1.27</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="U36" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="V36" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="W36" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.99</v>
+        <v>1.35</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA36" t="n">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -4654,89 +4654,89 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>UTC Cajamarca</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.92</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
-        <v>4.02</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.57</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M37" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="N37" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="O37" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T37" t="n">
-        <v>2.25</v>
+        <v>1.17</v>
       </c>
       <c r="U37" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>2.05</v>
       </c>
       <c r="W37" t="n">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="X37" t="n">
-        <v>1.94</v>
+        <v>0.4</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
       <c r="AB37" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1.36</v>
+        <v>2.63</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI37" t="n">
         <v>0</v>
@@ -4845,13 +4845,13 @@
         <v>3.21</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AE38" t="n">
         <v>1.2</v>
@@ -4888,100 +4888,100 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
         <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L39" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N39" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="O39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V39" t="n">
         <v>2.5</v>
       </c>
-      <c r="P39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="40">
@@ -5003,106 +5003,106 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.28</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O40" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="S40" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="U40" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="V40" t="n">
-        <v>3.75</v>
+        <v>1.42</v>
       </c>
       <c r="W40" t="n">
-        <v>2.44</v>
+        <v>1.22</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.61</v>
+        <v>3.18</v>
       </c>
       <c r="AB40" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
         <v>1.26</v>
       </c>
-      <c r="AC40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
       <c r="AG40" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -5114,104 +5114,104 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Lommel United</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Standard Liège II</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.83</v>
+        <v>4.92</v>
       </c>
       <c r="H41" t="n">
-        <v>3.42</v>
+        <v>4.02</v>
       </c>
       <c r="I41" t="n">
-        <v>3.11</v>
+        <v>1.57</v>
       </c>
       <c r="J41" t="n">
         <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="L41" t="n">
         <v>1.16</v>
       </c>
       <c r="M41" t="n">
-        <v>4.53</v>
+        <v>4.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="O41" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S41" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.17</v>
       </c>
-      <c r="U41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2</v>
-      </c>
       <c r="W41" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="X41" t="n">
-        <v>0.87</v>
+        <v>1.94</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="Z41" t="n">
         <v>1.46</v>
       </c>
       <c r="AA41" t="n">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="42">
@@ -5233,100 +5233,100 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>2.04</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="I42" t="n">
-        <v>2.2</v>
+        <v>3.18</v>
       </c>
       <c r="J42" t="n">
         <v>1.02</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="M42" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="N42" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="O42" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="P42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE42" t="n">
         <v>1.26</v>
       </c>
-      <c r="Q42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="43">
@@ -5348,106 +5348,106 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="H43" t="n">
-        <v>7.2</v>
+        <v>4.45</v>
       </c>
       <c r="I43" t="n">
-        <v>14.25</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T43" t="n">
         <v>1.12</v>
       </c>
-      <c r="M43" t="n">
-        <v>6</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="U43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB43" t="n">
         <v>1.26</v>
       </c>
-      <c r="Q43" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="V43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AC43" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.7</v>
+        <v>4.34</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG43" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,104 +5459,104 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="H44" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L44" t="n">
         <v>1.2</v>
       </c>
       <c r="M44" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="N44" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O44" t="n">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="P44" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="U44" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="V44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W44" t="n">
-        <v>1.89</v>
+        <v>2.47</v>
       </c>
       <c r="X44" t="n">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AA44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI44" t="n">
         <v>2.4</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5587,37 +5587,37 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.68</v>
+        <v>6.2</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="O45" t="n">
-        <v>1.86</v>
+        <v>2.36</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="R45" t="n">
         <v>1.73</v>
@@ -5626,13 +5626,13 @@
         <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W45" t="n">
         <v>2.06</v>
@@ -5668,16 +5668,16 @@
         <v>1.91</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Austria 2. Liga</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -5689,110 +5689,110 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Jagiellonia Białystok</t>
+          <t>Blau-Weiß Linz</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.53</v>
+        <v>3.65</v>
       </c>
       <c r="H46" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>4.93</v>
+        <v>1.95</v>
       </c>
       <c r="J46" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K46" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N46" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="O46" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T46" t="n">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V46" t="n">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>2.33</v>
+        <v>1.77</v>
       </c>
       <c r="X46" t="n">
-        <v>0.87</v>
+        <v>1.54</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.23</v>
+        <v>3.56</v>
       </c>
       <c r="AB46" t="n">
-        <v>1.37</v>
+        <v>2.3</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD46" t="n">
-        <v>3.62</v>
+        <v>1.76</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AG46" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="AI46" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Austria 2. Liga</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -5804,104 +5804,104 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blau-Weiß Linz</t>
+          <t>Jagiellonia Białystok</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.83</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>3.12</v>
+        <v>3.95</v>
       </c>
       <c r="I47" t="n">
-        <v>2.06</v>
+        <v>4.8</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W47" t="n">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="X47" t="n">
-        <v>1.54</v>
+        <v>0.87</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="AA47" t="n">
-        <v>3.56</v>
+        <v>3.23</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="48">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I48" t="n">
-        <v>4.58</v>
+        <v>4.2</v>
       </c>
       <c r="J48" t="n">
         <v>1.04</v>
@@ -5953,10 +5953,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="O48" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -6022,7 +6022,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -6034,104 +6034,104 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="H49" t="n">
-        <v>3.33</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.99</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K49" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N49" t="n">
-        <v>1.9</v>
+        <v>2.21</v>
       </c>
       <c r="O49" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="P49" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="S49" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="T49" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="U49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W49" t="n">
-        <v>1.43</v>
+        <v>1.94</v>
       </c>
       <c r="X49" t="n">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AB49" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>2</v>
+        <v>3.08</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF49" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="AG49" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.12</v>
+        <v>2.81</v>
       </c>
       <c r="AI49" t="n">
-        <v>2.77</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="50">
@@ -6153,106 +6153,106 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.75</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>5.62</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>1.16</v>
+        <v>2.4</v>
       </c>
       <c r="J50" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N50" t="n">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O50" t="n">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
       <c r="P50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z50" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q50" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R50" t="n">
+      <c r="AA50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB50" t="n">
         <v>2.2</v>
       </c>
-      <c r="S50" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X50" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.13</v>
+        <v>1.91</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH50" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -6264,104 +6264,104 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="H51" t="n">
-        <v>3.82</v>
+        <v>3.45</v>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N51" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="P51" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R51" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="S51" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="T51" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U51" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V51" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="W51" t="n">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="X51" t="n">
-        <v>0.88</v>
+        <v>0.29</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="AI51" t="n">
-        <v>3.86</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="52">
@@ -6383,100 +6383,100 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.01</v>
+        <v>1.79</v>
       </c>
       <c r="H52" t="n">
-        <v>3.02</v>
+        <v>3.65</v>
       </c>
       <c r="I52" t="n">
-        <v>3.31</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M52" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N52" t="n">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="P52" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R52" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T52" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U52" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="V52" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="X52" t="n">
-        <v>0.29</v>
+        <v>1.29</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AB52" t="n">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
-        <v>3.26</v>
+        <v>2</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AG52" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="53">
@@ -6498,100 +6498,100 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>12</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O53" t="n">
         <v>2.36</v>
       </c>
-      <c r="H53" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.7</v>
-      </c>
       <c r="P53" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T53" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="U53" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="V53" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>0.71</v>
       </c>
       <c r="X53" t="n">
-        <v>2.43</v>
+        <v>2.14</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AA53" t="n">
-        <v>3.09</v>
+        <v>2.63</v>
       </c>
       <c r="AB53" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.91</v>
+        <v>1.13</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AI53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="54">
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.17</v>
+        <v>2.46</v>
       </c>
       <c r="H54" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I54" t="n">
-        <v>3.02</v>
+        <v>3.15</v>
       </c>
       <c r="J54" t="n">
         <v>1.1</v>
@@ -6643,10 +6643,10 @@
         <v>2.43</v>
       </c>
       <c r="N54" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P54" t="n">
         <v>1.57</v>
@@ -6712,7 +6712,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -6724,104 +6724,104 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="H55" t="n">
-        <v>2.97</v>
+        <v>4.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.09</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>2.03</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="R55" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="T55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W55" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="X55" t="n">
         <v>1.24</v>
       </c>
-      <c r="U55" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.88</v>
-      </c>
       <c r="Y55" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="Z55" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AA55" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AF55" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AH55" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AI55" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="56">
@@ -6852,13 +6852,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="H56" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="I56" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J56" t="n">
         <v>1.03</v>
@@ -6873,10 +6873,10 @@
         <v>3.6</v>
       </c>
       <c r="N56" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="O56" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -6942,7 +6942,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6954,104 +6954,104 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.65</v>
+        <v>2.17</v>
       </c>
       <c r="H57" t="n">
-        <v>3.63</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>4.54</v>
+        <v>3.95</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="K57" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L57" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="N57" t="n">
-        <v>1.84</v>
+        <v>2.82</v>
       </c>
       <c r="O57" t="n">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="S57" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="T57" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="U57" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="V57" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="W57" t="n">
-        <v>2.71</v>
+        <v>1.63</v>
       </c>
       <c r="X57" t="n">
-        <v>1.24</v>
+        <v>0.88</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.74</v>
+        <v>1.19</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="AA57" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="AG57" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AH57" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="AI57" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="58">
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="H58" t="n">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="J58" t="n">
         <v>1.06</v>
@@ -7103,7 +7103,7 @@
         <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O58" t="n">
         <v>1.7</v>
@@ -7154,7 +7154,7 @@
         <v>2.64</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF58" t="n">
         <v>1.28</v>
@@ -7197,52 +7197,52 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W59" t="n">
         <v>1.67</v>
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="H60" t="n">
-        <v>4.88</v>
+        <v>5.8</v>
       </c>
       <c r="I60" t="n">
-        <v>9.359999999999999</v>
+        <v>12</v>
       </c>
       <c r="J60" t="n">
         <v>1.02</v>
@@ -7333,10 +7333,10 @@
         <v>4.2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O60" t="n">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="P60" t="n">
         <v>1.3</v>
@@ -7542,31 +7542,31 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O62" t="n">
         <v>1.84</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.73</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -7632,7 +7632,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -7644,89 +7644,89 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Atenas</t>
+          <t>Municipal Vinto</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X63" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y63" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.9</v>
+        <v>3.09</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7759,110 +7759,110 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Municipal Vinto</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>2.34</v>
       </c>
       <c r="H64" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="I64" t="n">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="J64" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="L64" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N64" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="P64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="X64" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -7874,80 +7874,80 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tacuarembó</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
         <v>2</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Z65" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Venezuela Primera División</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -7985,30 +7985,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sud América</t>
+          <t>Hermanos Colmenares</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -8023,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -8050,19 +8050,19 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="X66" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="Z66" t="n">
         <v>1.2</v>
       </c>
       <c r="AA66" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -8108,76 +8108,76 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Deportivo Binacional</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>ADT</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W67" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="X67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AA67" t="n">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
@@ -8207,7 +8207,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
@@ -8215,114 +8215,114 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Huracán</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.41</v>
+        <v>2.15</v>
       </c>
       <c r="H68" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K68" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M68" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N68" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P68" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S68" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="T68" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="U68" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="V68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB68" t="n">
         <v>1.49</v>
       </c>
-      <c r="W68" t="n">
-        <v>3</v>
-      </c>
-      <c r="X68" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -8330,114 +8330,114 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W69" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X69" t="n">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.12</v>
+        <v>1.61</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.02</v>
+        <v>1.39</v>
       </c>
       <c r="AA69" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -8445,84 +8445,84 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Deportivo Cuenca</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Mushuc Runa SC</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K70" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N70" t="n">
         <v>2</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Bella Vista</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Albion</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W70" t="n">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="X70" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.71</v>
+        <v>0.92</v>
       </c>
       <c r="AA70" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -8560,93 +8560,93 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Nacional Potosí</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Uruguay Montevideo FC</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="W71" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="X71" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AA71" t="n">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD71" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="AE71" t="n">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH71" t="n">
         <v>0</v>
@@ -8667,7 +8667,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -8675,84 +8675,84 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W72" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X72" t="n">
         <v>1.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -8798,106 +8798,106 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Hermanos Colmenares</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W73" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="X73" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -8905,84 +8905,84 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Deportivo Binacional</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I74" t="n">
-        <v>4.19</v>
+        <v>7.5</v>
       </c>
       <c r="J74" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="O74" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="P74" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="X74" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AA74" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="AB74" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Venezuela Primera División</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -9020,114 +9020,114 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="J75" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="O75" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="P75" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R75" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="S75" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="T75" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="U75" t="n">
         <v>1.28</v>
       </c>
       <c r="V75" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="W75" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="X75" t="n">
-        <v>1.25</v>
+        <v>2.17</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AA75" t="n">
-        <v>2.71</v>
+        <v>3.24</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
@@ -9135,84 +9135,84 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.54</v>
+        <v>2.11</v>
       </c>
       <c r="H76" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="J76" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M76" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N76" t="n">
-        <v>2.22</v>
+        <v>2.39</v>
       </c>
       <c r="O76" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="P76" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="R76" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S76" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="T76" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="U76" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V76" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="W76" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X76" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.61</v>
+        <v>2.21</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AA76" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="AB76" t="n">
         <v>0</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
@@ -9250,114 +9250,114 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Deportes Santa Cruz</t>
+          <t>Atlético Tucumán</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="H77" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="J77" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>8.25</v>
       </c>
       <c r="L77" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N77" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="O77" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="P77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.36</v>
+        <v>2.49</v>
       </c>
       <c r="R77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="T77" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U77" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V77" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="W77" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X77" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="AA77" t="n">
-        <v>3.33</v>
+        <v>2.97</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -9365,453 +9365,108 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>22:15:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Nacional Potosí</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Atlético Bucaramanga</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H78" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="I78" t="n">
-        <v>3.37</v>
+        <v>4.2</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T78" t="n">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="U78" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V78" t="n">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="W78" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="X78" t="n">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="Y78" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AA78" t="n">
-        <v>3.69</v>
+        <v>2.92</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>4.14</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG78" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Paraguay Division Profesional</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>17</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Libertad</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X79" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Gimnasia Jujuy</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Tristán Suárez</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X80" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>21:00:00</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>10</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Deportivo Cuenca</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Mushuc Runa SC</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K81" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M81" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P81" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T81" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W81" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-05-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:AI79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,10 +690,10 @@
         <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Y2" t="n">
         <v>2.14</v>
@@ -778,10 +778,10 @@
         <v>4.9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O3" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="P3" t="n">
         <v>1.29</v>
@@ -805,10 +805,10 @@
         <v>1.49</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="Y3" t="n">
         <v>1.86</v>
@@ -893,10 +893,10 @@
         <v>3.3</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P4" t="n">
         <v>1.4</v>
@@ -920,10 +920,10 @@
         <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Y4" t="n">
         <v>1.34</v>
@@ -1008,10 +1008,10 @@
         <v>2.59</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
         <v>1.48</v>
@@ -1123,10 +1123,10 @@
         <v>2.55</v>
       </c>
       <c r="N6" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
         <v>1.51</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1241,7 +1241,7 @@
         <v>1.53</v>
       </c>
       <c r="O7" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.29</v>
@@ -1422,7 +1422,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1434,80 +1434,80 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nõmme Kalju</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y9" t="n">
         <v>1.42</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.53</v>
+        <v>2.87</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1549,80 +1549,80 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Nõmme Kalju</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lokomotiva Zagreb</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Y10" t="n">
         <v>1.42</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.87</v>
+        <v>2.53</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1668,46 +1668,46 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vorwärts Steyr</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Austria Wien II</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.17</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.3</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="P11" t="n">
         <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
         <v>1.53</v>
@@ -1716,37 +1716,37 @@
         <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="Z11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.42</v>
       </c>
-      <c r="AA11" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1783,85 +1783,85 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Vorwärts Steyr</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Austria Wien II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="O12" t="n">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="P12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>2.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>4.2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O13" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="P13" t="n">
         <v>1.32</v>
@@ -1973,10 +1973,10 @@
         <v>1.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2013,100 +2013,100 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.53</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Z14" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="15">
@@ -2158,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.48</v>
@@ -2243,100 +2243,100 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sandhausen</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.33</v>
       </c>
-      <c r="M16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="U16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AG16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="17">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="J17" t="n">
         <v>1.05</v>
@@ -2388,7 +2388,7 @@
         <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O17" t="n">
         <v>1.9</v>
@@ -2473,106 +2473,106 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Sandhausen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nürnberg</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="n">
         <v>3.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE18" t="n">
         <v>1.25</v>
       </c>
-      <c r="M18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AF18" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2584,110 +2584,110 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nykøbing</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hillerød</t>
+          <t>MSV Duisburg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>2.17</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="L19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.25</v>
       </c>
-      <c r="M19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="X19" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.77</v>
+        <v>2.51</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.87</v>
+        <v>1.26</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.44</v>
+        <v>1.49</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.34</v>
+        <v>1.88</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.7</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2703,106 +2703,106 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Helsingør</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>1.93</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>1.84</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.21</v>
       </c>
-      <c r="M20" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AF20" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.46</v>
+        <v>2.15</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.88</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2818,106 +2818,106 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>FC Helsingør</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AaB</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.28</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1.84</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
         <v>14.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="N21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
       </c>
       <c r="Q21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB21" t="n">
         <v>3</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AC21" t="n">
-        <v>9.1</v>
+        <v>5.75</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.13</v>
+        <v>2.46</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.85</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,110 +2929,110 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Nykøbing</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MSV Duisburg</t>
+          <t>Hillerød</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.17</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="P22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>1.25</v>
       </c>
-      <c r="V22" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="X22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.41</v>
       </c>
-      <c r="Y22" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Z22" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.66</v>
+        <v>2.45</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.51</v>
+        <v>1.77</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.26</v>
+        <v>1.87</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.49</v>
+        <v>2.44</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.88</v>
+        <v>3.34</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.37</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3044,110 +3044,110 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
         <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="L23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF23" t="n">
         <v>1.29</v>
       </c>
-      <c r="M23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="AG23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH23" t="n">
         <v>1.85</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AI23" t="n">
-        <v>2.84</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,110 +3159,110 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CD Trofense</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>AaB</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="N24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.95</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.89</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="U24" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="W24" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="X24" t="n">
-        <v>1.87</v>
+        <v>0.86</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AC24" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,110 +3274,110 @@
         </is>
       </c>
       <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CD Trofense</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC25" t="n">
         <v>6</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Odd</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Lillestrøm</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rapid Bucureşti</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>Ried</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P26" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.22</v>
+        <v>1.14</v>
       </c>
       <c r="X26" t="n">
-        <v>1.11</v>
+        <v>0.71</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.31</v>
+        <v>2.28</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wattens</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ried</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.03</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W27" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.71</v>
+        <v>1.31</v>
       </c>
       <c r="Y27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AE27" t="n">
         <v>1.21</v>
       </c>
-      <c r="Z27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,104 +3619,104 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Rapid Bucureşti</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="P28" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>1.31</v>
+        <v>2.22</v>
       </c>
       <c r="X28" t="n">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="AG28" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.54</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29">
@@ -3738,100 +3738,100 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z29" t="n">
         <v>1.68</v>
       </c>
-      <c r="O29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S29" t="n">
+      <c r="AA29" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AG29" t="n">
         <v>2</v>
       </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AH29" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.79</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="30">
@@ -3853,28 +3853,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="I30" t="n">
-        <v>9.5</v>
+        <v>14.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
         <v>1.12</v>
@@ -3883,76 +3883,76 @@
         <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O30" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P30" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.25</v>
+        <v>3.64</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="T30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
         <v>1.09</v>
       </c>
       <c r="V30" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="W30" t="n">
-        <v>2.44</v>
+        <v>2.11</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.12</v>
+        <v>1.71</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.61</v>
+        <v>2.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AC30" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.34</v>
+        <v>7.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3964,110 +3964,110 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lommel United</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Standard Liège II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>18.25</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
         <v>1.16</v>
       </c>
       <c r="M31" t="n">
-        <v>4.53</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O31" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AB31" t="n">
         <v>2.3</v>
       </c>
-      <c r="T31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.54</v>
-      </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.38</v>
+        <v>2.35</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.67</v>
+        <v>3.28</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4079,104 +4079,104 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KMSK Deinze</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FCV Dender EH</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.85</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N32" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="T32" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
         <v>1.2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.66</v>
+        <v>2.83</v>
       </c>
       <c r="AC32" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.58</v>
+        <v>1.6</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AG32" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="AH32" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="AI32" t="n">
-        <v>4.4</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="33">
@@ -4198,100 +4198,100 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Excelsior Virton</t>
+          <t>Lommel United</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>KRC Genk II</t>
+          <t>Standard Liège II</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O33" t="n">
         <v>2.4</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K33" t="n">
-        <v>13</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH33" t="n">
         <v>1.67</v>
       </c>
-      <c r="O33" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AI33" t="n">
         <v>2.1</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4313,100 +4313,100 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>4.92</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>4.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L34" t="n">
         <v>1.16</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O34" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF34" t="n">
         <v>1.4</v>
       </c>
-      <c r="W34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AG34" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="AH34" t="n">
-        <v>3.28</v>
+        <v>2.14</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35">
@@ -4428,106 +4428,106 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.18</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>14.25</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="O35" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="P35" t="n">
         <v>1.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.64</v>
+        <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="S35" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U35" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="V35" t="n">
-        <v>4.8</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
-        <v>2.11</v>
+        <v>1.22</v>
       </c>
       <c r="X35" t="n">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.08</v>
+        <v>2.67</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.7</v>
+        <v>1.59</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AG35" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,110 +4539,110 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>UTC Cajamarca</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.37</v>
+        <v>1.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>2.63</v>
+        <v>4.45</v>
       </c>
       <c r="J36" t="n">
         <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M36" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="N36" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="O36" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>1.27</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="S36" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="T36" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="U36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z36" t="n">
         <v>1.22</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AA36" t="n">
-        <v>2.55</v>
+        <v>3.21</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.29</v>
+        <v>1.28</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.08</v>
+        <v>1.98</v>
       </c>
       <c r="AI36" t="n">
-        <v>5.1</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -4654,104 +4654,104 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UTC Cajamarca</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M37" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.19</v>
       </c>
-      <c r="M37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.27</v>
-      </c>
       <c r="Q37" t="n">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="S37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T37" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="U37" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="V37" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.67</v>
+        <v>2.44</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.21</v>
+        <v>3.61</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.63</v>
+        <v>4.34</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="38">
@@ -4773,100 +4773,100 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L38" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="O38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA38" t="n">
         <v>2.4</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3.21</v>
-      </c>
       <c r="AB38" t="n">
-        <v>2.83</v>
+        <v>1.3</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.6</v>
+        <v>4.02</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AG38" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AI38" t="n">
-        <v>2.85</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="39">
@@ -4888,100 +4888,100 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="H39" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>3.18</v>
       </c>
       <c r="J39" t="n">
         <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="M39" t="n">
-        <v>4.33</v>
+        <v>5.2</v>
       </c>
       <c r="N39" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="O39" t="n">
-        <v>2.15</v>
+        <v>2.54</v>
       </c>
       <c r="P39" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="R39" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="U39" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="V39" t="n">
-        <v>2.5</v>
+        <v>1.77</v>
       </c>
       <c r="W39" t="n">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.4</v>
+        <v>2.97</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>4.02</v>
+        <v>2.54</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="AI39" t="n">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="40">
@@ -5003,22 +5003,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="I40" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
@@ -5027,19 +5027,19 @@
         <v>17</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
         <v>4.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="P40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q40" t="n">
         <v>3.5</v>
@@ -5051,58 +5051,58 @@
         <v>2.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="U40" t="n">
         <v>1.22</v>
       </c>
       <c r="V40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AE40" t="n">
         <v>1.42</v>
       </c>
-      <c r="W40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
       <c r="AF40" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.92</v>
+        <v>3.08</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.34</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
@@ -5114,104 +5114,104 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Excelsior Virton</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>KRC Genk II</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.92</v>
+        <v>2.08</v>
       </c>
       <c r="H41" t="n">
-        <v>4.02</v>
+        <v>4.44</v>
       </c>
       <c r="I41" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
-        <v>4.75</v>
+        <v>3.77</v>
       </c>
       <c r="N41" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="O41" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.28</v>
       </c>
-      <c r="Q41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.19</v>
-      </c>
       <c r="V41" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y41" t="n">
         <v>1.28</v>
       </c>
-      <c r="X41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Z41" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="AB41" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="AD41" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AG41" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5233,106 +5233,106 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
       <c r="I42" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>1.02</v>
       </c>
       <c r="K42" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L42" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="M42" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="O42" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.82</v>
+        <v>3.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="S42" t="n">
-        <v>2.7</v>
+        <v>2.09</v>
       </c>
       <c r="T42" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="V42" t="n">
-        <v>1.77</v>
+        <v>2.65</v>
       </c>
       <c r="W42" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="X42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.77</v>
+        <v>1.26</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.54</v>
+        <v>4.34</v>
       </c>
       <c r="AE42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF42" t="n">
         <v>1.26</v>
       </c>
-      <c r="AF42" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AG42" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="AI42" t="n">
-        <v>3.28</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5344,110 +5344,110 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>NEC</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="H43" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L43" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M43" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P43" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="T43" t="n">
         <v>1.12</v>
       </c>
       <c r="U43" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="V43" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.28</v>
+        <v>2.47</v>
       </c>
       <c r="X43" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="AB43" t="n">
         <v>1.26</v>
       </c>
       <c r="AC43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>4.34</v>
+        <v>4.84</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AG43" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,104 +5459,104 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>KMSK Deinze</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NEC</t>
+          <t>FCV Dender EH</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I44" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.12</v>
       </c>
       <c r="U44" t="n">
         <v>1.2</v>
       </c>
       <c r="V44" t="n">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="W44" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="X44" t="n">
         <v>1.33</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="Z44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF44" t="n">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="AG44" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.92</v>
+        <v>3.1</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="45">
@@ -5608,10 +5608,10 @@
         <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="P45" t="n">
         <v>1.28</v>
@@ -5620,10 +5620,10 @@
         <v>3.48</v>
       </c>
       <c r="R45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T45" t="n">
         <v>1.08</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG45" t="n">
         <v>1.91</v>
@@ -5735,10 +5735,10 @@
         <v>2.96</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
         <v>1.75</v>
@@ -5771,7 +5771,7 @@
         <v>6</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -5953,10 +5953,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="O48" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -6022,7 +6022,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -6034,104 +6034,104 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.51</v>
+        <v>9.6</v>
       </c>
       <c r="H49" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>1.17</v>
       </c>
       <c r="J49" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K49" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="L49" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="M49" t="n">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N49" t="n">
-        <v>2.21</v>
+        <v>1.52</v>
       </c>
       <c r="O49" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S49" t="n">
         <v>1.62</v>
       </c>
-      <c r="P49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T49" t="n">
-        <v>1.15</v>
+        <v>4.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="V49" t="n">
-        <v>2.15</v>
+        <v>1.02</v>
       </c>
       <c r="W49" t="n">
-        <v>1.94</v>
+        <v>0.71</v>
       </c>
       <c r="X49" t="n">
-        <v>0.88</v>
+        <v>2.14</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AA49" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.53</v>
+        <v>7.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>3.08</v>
+        <v>1.13</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AF49" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.81</v>
+        <v>2.37</v>
       </c>
       <c r="AI49" t="n">
-        <v>3.86</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="50">
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I50" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
@@ -6183,10 +6183,10 @@
         <v>2.7</v>
       </c>
       <c r="N50" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="P50" t="n">
         <v>1.5</v>
@@ -6277,13 +6277,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
         <v>1.02</v>
@@ -6413,10 +6413,10 @@
         <v>3.3</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="O52" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="P52" t="n">
         <v>1.38</v>
@@ -6482,7 +6482,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -6494,110 +6494,110 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>1.51</v>
       </c>
       <c r="H53" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="M53" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N53" t="n">
-        <v>1.52</v>
+        <v>2.22</v>
       </c>
       <c r="O53" t="n">
-        <v>2.36</v>
+        <v>1.58</v>
       </c>
       <c r="P53" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T53" t="n">
-        <v>4.5</v>
+        <v>1.15</v>
       </c>
       <c r="U53" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="V53" t="n">
-        <v>1.02</v>
+        <v>2.15</v>
       </c>
       <c r="W53" t="n">
-        <v>0.71</v>
+        <v>1.94</v>
       </c>
       <c r="X53" t="n">
-        <v>2.14</v>
+        <v>0.88</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AA53" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.6</v>
+        <v>1.53</v>
       </c>
       <c r="AC53" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.13</v>
+        <v>3.08</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.37</v>
+        <v>2.81</v>
       </c>
       <c r="AI53" t="n">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -6609,110 +6609,110 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.46</v>
+        <v>2.17</v>
       </c>
       <c r="H54" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="J54" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L54" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M54" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="N54" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="P54" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R54" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="S54" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T54" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="U54" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="V54" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="W54" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="X54" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.21</v>
+        <v>1.09</v>
       </c>
       <c r="AA54" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AC54" t="n">
         <v>7.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AI54" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -6724,101 +6724,101 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="H55" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="J55" t="n">
         <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.25</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N55" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="O55" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AG55" t="n">
         <v>1.8</v>
       </c>
-      <c r="S55" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="V55" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W55" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="X55" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AH55" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AI55" t="n">
         <v>3.25</v>
@@ -6827,7 +6827,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6839,110 +6839,110 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.75</v>
+        <v>2.46</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I56" t="n">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K56" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="M56" t="n">
-        <v>3.6</v>
+        <v>2.43</v>
       </c>
       <c r="N56" t="n">
-        <v>1.86</v>
+        <v>2.68</v>
       </c>
       <c r="O56" t="n">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="P56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U56" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V56" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="W56" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X56" t="n">
-        <v>2.09</v>
+        <v>0.74</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="Z56" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="AA56" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="AB56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC56" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AG56" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AI56" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6954,104 +6954,104 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="M57" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>2.82</v>
+        <v>1.63</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>2.13</v>
       </c>
       <c r="P57" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="R57" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="S57" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="T57" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="X57" t="n">
         <v>1.24</v>
       </c>
-      <c r="U57" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.88</v>
-      </c>
       <c r="Y57" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="AA57" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="AB57" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AG57" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AH57" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AI57" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="58">
@@ -7103,10 +7103,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="O58" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P58" t="n">
         <v>1.44</v>
@@ -7206,7 +7206,7 @@
         <v>4.4</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K59" t="n">
         <v>7.3</v>
@@ -7221,7 +7221,7 @@
         <v>2.45</v>
       </c>
       <c r="O59" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
         <v>1.53</v>
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="H60" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>9.1</v>
       </c>
       <c r="J60" t="n">
         <v>1.02</v>
@@ -7333,10 +7333,10 @@
         <v>4.2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O60" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="P60" t="n">
         <v>1.3</v>
@@ -7375,28 +7375,28 @@
         <v>2.18</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="61">
@@ -7427,52 +7427,52 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W61" t="n">
         <v>1.71</v>
@@ -7517,7 +7517,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -7525,114 +7525,114 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sportivo Ameliano</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Rionegro Águilas</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3.7</v>
+        <v>2.43</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="O62" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W62" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="X62" t="n">
-        <v>0.38</v>
+        <v>1.11</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -7640,93 +7640,93 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Municipal Vinto</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="H63" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O63" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="P63" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="X63" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="AA63" t="n">
-        <v>3.09</v>
+        <v>2.68</v>
       </c>
       <c r="AB63" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -7747,7 +7747,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -7759,104 +7759,104 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Municipal Vinto</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K64" t="n">
+        <v>8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD64" t="n">
         <v>2.34</v>
       </c>
-      <c r="H64" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K64" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="AE64" t="n">
         <v>1.38</v>
       </c>
-      <c r="M64" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U64" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X64" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AF64" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="AG64" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AH64" t="n">
-        <v>2.14</v>
+        <v>2.93</v>
       </c>
       <c r="AI64" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J65" t="n">
         <v>1.06</v>
@@ -7902,16 +7902,16 @@
         <v>6.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
         <v>2.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O65" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P65" t="n">
         <v>1.53</v>
@@ -7950,34 +7950,34 @@
         <v>2.92</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -7985,114 +7985,114 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Hermanos Colmenares</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="H66" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I66" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N66" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O66" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W66" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="X66" t="n">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE66" t="n">
         <v>1.2</v>
       </c>
-      <c r="AA66" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Venezuela Primera División</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -8100,84 +8100,84 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Deportivo Binacional</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>Hermanos Colmenares</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="H67" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="I67" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J67" t="n">
         <v>1.03</v>
       </c>
       <c r="K67" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="L67" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>3.04</v>
       </c>
       <c r="N67" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="O67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R67" t="n">
         <v>1.95</v>
       </c>
-      <c r="P67" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S67" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="T67" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="U67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z67" t="n">
         <v>1.2</v>
       </c>
-      <c r="V67" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X67" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AA67" t="n">
-        <v>3.14</v>
+        <v>2.68</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
@@ -8322,7 +8322,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
@@ -8330,114 +8330,114 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>20:05:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba</t>
+          <t>Deportivo Binacional</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>ADT</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.65</v>
+        <v>1.66</v>
       </c>
       <c r="H69" t="n">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="I69" t="n">
-        <v>2.7</v>
+        <v>4.25</v>
       </c>
       <c r="J69" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K69" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L69" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="M69" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N69" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="R69" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T69" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="U69" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="V69" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="W69" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="X69" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AA69" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="AB69" t="n">
-        <v>2.07</v>
+        <v>1.45</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>2.01</v>
+        <v>3.2</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AG69" t="n">
-        <v>1.93</v>
+        <v>1.31</v>
       </c>
       <c r="AH69" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="AI69" t="n">
-        <v>3.08</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ecuador Primera Categoría Serie A</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
@@ -8445,114 +8445,114 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>20:05:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Deportivo Cuenca</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="H70" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="J70" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K70" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="L70" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="M70" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S70" t="n">
         <v>1.8</v>
       </c>
-      <c r="P70" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.85</v>
-      </c>
       <c r="T70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AE70" t="n">
         <v>1.24</v>
       </c>
-      <c r="U70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W70" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
       <c r="AF70" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG70" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AH70" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -8564,110 +8564,110 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nacional Potosí</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K71" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="M71" t="n">
-        <v>3.93</v>
+        <v>3.1</v>
       </c>
       <c r="N71" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="O71" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="P71" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R71" t="n">
         <v>1.98</v>
       </c>
       <c r="S71" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="T71" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="U71" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="V71" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
       <c r="W71" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="X71" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Y71" t="n">
-        <v>2.32</v>
+        <v>1.39</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AA71" t="n">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="AB71" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.15</v>
+        <v>2.59</v>
       </c>
       <c r="AE71" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG71" t="n">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -8679,80 +8679,80 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Deportes Santa Cruz</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.17</v>
+        <v>1.45</v>
       </c>
       <c r="H72" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O72" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="P72" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="X72" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="AA72" t="n">
-        <v>3.33</v>
+        <v>3.16</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -8794,110 +8794,110 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Deportivo Cuenca</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I73" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L73" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M73" t="n">
         <v>3.1</v>
       </c>
       <c r="N73" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="P73" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T73" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U73" t="n">
         <v>1.29</v>
       </c>
       <c r="V73" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W73" t="n">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="X73" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.47</v>
+        <v>0.92</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.86</v>
+        <v>2.5</v>
       </c>
       <c r="AB73" t="n">
         <v>1.64</v>
       </c>
       <c r="AC73" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AF73" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AG73" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AH73" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="AI73" t="n">
-        <v>1.9</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -8909,110 +8909,110 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Nacional Potosí</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="N74" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="O74" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="W74" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="X74" t="n">
-        <v>1.38</v>
+        <v>0.6</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.81</v>
+        <v>2.32</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AA74" t="n">
-        <v>3.16</v>
+        <v>3.69</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Venezuela Primera División</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
@@ -9020,84 +9020,84 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Academia Puerto Cabello</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>2.13</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N75" t="n">
         <v>2.45</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.02</v>
-      </c>
       <c r="O75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z75" t="n">
         <v>1.74</v>
       </c>
-      <c r="P75" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V75" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X75" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AA75" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
@@ -9152,13 +9152,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="H76" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I76" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J76" t="n">
         <v>1.1</v>
@@ -9173,10 +9173,10 @@
         <v>2.6</v>
       </c>
       <c r="N76" t="n">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="O76" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P76" t="n">
         <v>1.5</v>
@@ -9215,28 +9215,28 @@
         <v>3.55</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="77">
@@ -9357,7 +9357,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Venezuela Primera División</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
@@ -9365,107 +9365,222 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22:15:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga</t>
+          <t>Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.84</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I78" t="n">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="J78" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>19</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K79" t="n">
+        <v>10</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P79" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q79" t="n">
         <v>2.65</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R79" t="n">
         <v>2</v>
       </c>
-      <c r="S78" t="n">
+      <c r="S79" t="n">
         <v>1.8</v>
       </c>
-      <c r="T78" t="n">
+      <c r="T79" t="n">
         <v>1.22</v>
       </c>
-      <c r="U78" t="n">
+      <c r="U79" t="n">
         <v>1.25</v>
       </c>
-      <c r="V78" t="n">
+      <c r="V79" t="n">
         <v>1.95</v>
       </c>
-      <c r="W78" t="n">
+      <c r="W79" t="n">
         <v>1.78</v>
       </c>
-      <c r="X78" t="n">
+      <c r="X79" t="n">
         <v>0.78</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Y79" t="n">
         <v>1.65</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="Z79" t="n">
         <v>1.27</v>
       </c>
-      <c r="AA78" t="n">
+      <c r="AA79" t="n">
         <v>2.92</v>
       </c>
-      <c r="AB78" t="n">
+      <c r="AB79" t="n">
         <v>1.34</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AC79" t="n">
         <v>10</v>
       </c>
-      <c r="AD78" t="n">
+      <c r="AD79" t="n">
         <v>4.14</v>
       </c>
-      <c r="AE78" t="n">
+      <c r="AE79" t="n">
         <v>1.26</v>
       </c>
-      <c r="AF78" t="n">
+      <c r="AF79" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG78" t="n">
+      <c r="AG79" t="n">
         <v>1.93</v>
       </c>
-      <c r="AH78" t="n">
+      <c r="AH79" t="n">
         <v>2.39</v>
       </c>
-      <c r="AI78" t="n">
+      <c r="AI79" t="n">
         <v>3.2</v>
       </c>
     </row>
